--- a/ConceptMap-R5-udi-entry-type-for-R4.xlsx
+++ b/ConceptMap-R5-udi-entry-type-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:24.0619626-06:00</t>
+    <t>2026-02-09T22:05:37.391403-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ConceptMap-R5-udi-entry-type-for-R4.xlsx
+++ b/ConceptMap-R5-udi-entry-type-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:37.391403-06:00</t>
+    <t>2026-02-17T14:42:22.7884638-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
